--- a/hk-emi-web/src/test/java/com/hk/emi/test/City.xlsx
+++ b/hk-emi-web/src/test/java/com/hk/emi/test/City.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{053EE3EE-8549-44F5-8C1D-FA8B364C163E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9B956732-107A-4283-99A6-25CA047F7591}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
   <si>
     <t>上级名称</t>
   </si>
@@ -307,6 +307,21 @@
   </si>
   <si>
     <t>邮政编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东城区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西城区</t>
+  </si>
+  <si>
+    <t>西城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,8 +352,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,6 +443,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -695,18 +731,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="33.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="6" max="6" width="37.125" customWidth="1"/>
   </cols>
@@ -749,471 +785,283 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="4">
-        <v>120000</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4">
-        <v>120000</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4">
-        <v>130000</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>130000</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4">
-        <v>140000</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4">
-        <v>140000</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4">
-        <v>150000</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>150000</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="4">
-        <v>210000</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
-        <v>210000</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4">
-        <v>220000</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4">
-        <v>220000</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4">
-        <v>230000</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>230000</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4">
-        <v>310000</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4">
-        <v>310000</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4">
-        <v>320000</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="4">
-        <v>320000</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4">
-        <v>330000</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4">
-        <v>330000</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="4">
-        <v>340000</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4">
-        <v>340000</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4">
-        <v>350000</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4">
-        <v>350000</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="4">
-        <v>360000</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="4">
-        <v>360000</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="4">
-        <v>370000</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4">
-        <v>370000</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="4">
-        <v>410000</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4">
-        <v>410000</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="4">
-        <v>420000</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="4">
-        <v>420000</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4">
-        <v>430000</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="4">
-        <v>430000</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4">
-        <v>440000</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="4">
-        <v>440000</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4">
-        <v>450000</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="4">
-        <v>450000</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4">
-        <v>460000</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="4">
-        <v>460000</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="4">
-        <v>500000</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="4">
-        <v>500000</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="4">
-        <v>510000</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="4">
-        <v>510000</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="4">
-        <v>520000</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="4">
-        <v>520000</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="4">
-        <v>530000</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="4">
-        <v>530000</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="4">
-        <v>540000</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="4">
-        <v>540000</v>
-      </c>
-      <c r="F27" s="4"/>
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="10">
+        <v>110101</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="11">
+        <v>110102</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="4">
-        <v>610000</v>
+        <v>120000</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E28" s="4">
-        <v>610000</v>
+        <v>120000</v>
       </c>
       <c r="F28" s="4"/>
     </row>
@@ -1222,16 +1070,16 @@
         <v>38</v>
       </c>
       <c r="B29" s="4">
-        <v>620000</v>
+        <v>130000</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E29" s="4">
-        <v>620000</v>
+        <v>130000</v>
       </c>
       <c r="F29" s="4"/>
     </row>
@@ -1240,16 +1088,16 @@
         <v>38</v>
       </c>
       <c r="B30" s="4">
-        <v>630000</v>
+        <v>140000</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E30" s="4">
-        <v>630000</v>
+        <v>140000</v>
       </c>
       <c r="F30" s="4"/>
     </row>
@@ -1258,16 +1106,16 @@
         <v>38</v>
       </c>
       <c r="B31" s="4">
-        <v>640000</v>
+        <v>150000</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E31" s="4">
-        <v>640000</v>
+        <v>150000</v>
       </c>
       <c r="F31" s="4"/>
     </row>
@@ -1276,16 +1124,16 @@
         <v>38</v>
       </c>
       <c r="B32" s="4">
-        <v>650000</v>
+        <v>210000</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E32" s="4">
-        <v>650000</v>
+        <v>210000</v>
       </c>
       <c r="F32" s="4"/>
     </row>
@@ -1294,16 +1142,16 @@
         <v>38</v>
       </c>
       <c r="B33" s="4">
-        <v>710000</v>
+        <v>220000</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4">
-        <v>710000</v>
+        <v>220000</v>
       </c>
       <c r="F33" s="4"/>
     </row>
@@ -1312,16 +1160,16 @@
         <v>38</v>
       </c>
       <c r="B34" s="4">
-        <v>810000</v>
+        <v>230000</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E34" s="4">
-        <v>810000</v>
+        <v>230000</v>
       </c>
       <c r="F34" s="4"/>
     </row>
@@ -1330,218 +1178,468 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
+        <v>310000</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4">
+        <v>310000</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4">
+        <v>320000</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="4">
+        <v>320000</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4">
+        <v>330000</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="4">
+        <v>330000</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="4">
+        <v>340000</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="4">
+        <v>340000</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>350000</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="4">
+        <v>350000</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <v>360000</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="4">
+        <v>360000</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4">
+        <v>370000</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="4">
+        <v>370000</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4">
+        <v>410000</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="4">
+        <v>410000</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="4">
+        <v>420000</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="4">
+        <v>420000</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="4">
+        <v>430000</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="4">
+        <v>430000</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="4">
+        <v>440000</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="4">
+        <v>440000</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="4">
+        <v>450000</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="4">
+        <v>450000</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="4">
+        <v>460000</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="4">
+        <v>460000</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="4">
+        <v>500000</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="4">
+        <v>500000</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="4">
+        <v>510000</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="4">
+        <v>510000</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="4">
+        <v>520000</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="4">
+        <v>520000</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="4">
+        <v>530000</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="4">
+        <v>530000</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="4">
+        <v>540000</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="4">
+        <v>540000</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="4">
+        <v>610000</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="4">
+        <v>610000</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="4">
+        <v>620000</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="4">
+        <v>620000</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="4">
+        <v>630000</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="4">
+        <v>630000</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="4">
+        <v>640000</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="4">
+        <v>640000</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="4">
+        <v>650000</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="4">
+        <v>650000</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="4">
+        <v>710000</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="4">
+        <v>710000</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="4">
+        <v>810000</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="4">
+        <v>810000</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="4">
         <v>820000</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E60" s="4">
         <v>820000</v>
       </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
@@ -1623,9 +1721,213 @@
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
     </row>
+    <row r="71" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="http://www.tcmap.com.cn/beijing/xichengqu.html" xr:uid="{FC62B2A3-4A55-4054-A50D-D93B2FBD3953}"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://www.tcmap.com.cn/beijing/xichengqu.html" xr:uid="{25570DCD-3AB4-4951-9369-E4F4AA1A0F22}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>